--- a/Tabela Lista Holandesa/VROM_ListaHolandesa-VI-2013.xlsx
+++ b/Tabela Lista Holandesa/VROM_ListaHolandesa-VI-2013.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Área de Trabalho/vor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Lista Holandesa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_980623FAA4378325D89118897C4EE19751B34204" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_980623FAA4378325D89118897C4EE19751B34204" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D687EE15-FB98-4D74-B4CF-1B4818FF2003}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,6 +1329,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3816,7 +3820,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6003,7 +6007,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6881,7 +6885,7 @@
         <v>217</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>125</v>
@@ -8190,7 +8194,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
